--- a/OrangeHRM/test_cases.xlsx
+++ b/OrangeHRM/test_cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BEBO-tech\Selenium\Selenium\OrangeHRM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4541DB6-7237-4E1E-9A4B-744B1C602097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9FAC61-9C3E-436C-915D-B69BBEF26A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Negative</t>
   </si>
   <si>
-    <t>valid_user</t>
-  </si>
-  <si>
     <t>wrongpass</t>
   </si>
   <si>
@@ -161,6 +158,12 @@
   </si>
   <si>
     <t>Dashboard</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Invalid credential</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,16 +607,16 @@
         <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -621,31 +624,31 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -653,16 +656,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>15</v>
@@ -674,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -685,31 +688,31 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -717,31 +720,31 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -749,31 +752,31 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
